--- a/website/shortcutKeys.xlsx
+++ b/website/shortcutKeys.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>全选</t>
   </si>
@@ -230,6 +230,12 @@
 能解决点截图导致下拉框消失</t>
   </si>
   <si>
+    <t>字母大写</t>
+  </si>
+  <si>
+    <t>Shift + 字母</t>
+  </si>
+  <si>
     <t>换行</t>
   </si>
   <si>
@@ -8778,8 +8784,12 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -12616,10 +12626,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -12640,10 +12650,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -16658,10 +16668,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -16682,10 +16692,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -20700,10 +20710,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>

--- a/website/shortcutKeys.xlsx
+++ b/website/shortcutKeys.xlsx
@@ -1,65 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="vscode" r:id="rId3" sheetId="1"/>
-    <sheet name="DOS命令(powershell终端)" r:id="rId4" sheetId="2"/>
-    <sheet name="window" r:id="rId5" sheetId="3"/>
-    <sheet name="excel" r:id="rId6" sheetId="4"/>
-    <sheet name="谷歌浏览器" r:id="rId7" sheetId="5"/>
-    <sheet name="git" r:id="rId8" sheetId="6"/>
+    <sheet name="vscode" sheetId="1" r:id="rId3"/>
+    <sheet name="DOS命令(powershell终端)" sheetId="2" r:id="rId4"/>
+    <sheet name="window" sheetId="3" r:id="rId5"/>
+    <sheet name="excel" sheetId="4" r:id="rId6"/>
+    <sheet name="谷歌浏览器" sheetId="5" r:id="rId7"/>
+    <sheet name="git" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="false"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>全选</t>
   </si>
   <si>
-    <t>选,ctr + A</t>
+    <t xml:space="preserve">选,ctr + A</t>
   </si>
   <si>
     <t>复制</t>
   </si>
   <si>
-    <t>选,ctr + C</t>
+    <t xml:space="preserve">选,ctr + C</t>
   </si>
   <si>
     <t>粘贴</t>
   </si>
   <si>
-    <t>ctr + V</t>
+    <t xml:space="preserve">ctr + V</t>
   </si>
   <si>
     <t>后返回</t>
   </si>
   <si>
-    <t>ctr + Z</t>
+    <t xml:space="preserve">ctr + Z</t>
   </si>
   <si>
     <t>前返回</t>
   </si>
   <si>
-    <t>ctr + Y</t>
+    <t xml:space="preserve">ctr + Y</t>
   </si>
   <si>
     <t>查找替换</t>
   </si>
   <si>
-    <t>ctr + F</t>
+    <t xml:space="preserve">ctr + F</t>
   </si>
   <si>
     <t>保存</t>
   </si>
   <si>
-    <t>ctr + S</t>
+    <t xml:space="preserve">ctr + S</t>
   </si>
   <si>
     <t>缩进</t>
@@ -71,19 +70,19 @@
     <t>缩退</t>
   </si>
   <si>
-    <t>选,shift + tab</t>
+    <t xml:space="preserve">选,shift + tab</t>
   </si>
   <si>
     <t>单行注释</t>
   </si>
   <si>
-    <t>选,ctr + /   按二次取消注释</t>
+    <t xml:space="preserve">选,ctr + /   按二次取消注释</t>
   </si>
   <si>
     <t>多行注释</t>
   </si>
   <si>
-    <t>Shift + Alt + A
+    <t xml:space="preserve">Shift + Alt + A
 idea敲/*回车</t>
   </si>
   <si>
@@ -96,7 +95,7 @@
     <t>代码对齐</t>
   </si>
   <si>
-    <t>选,Shift + Alt + F</t>
+    <t xml:space="preserve">选,Shift + Alt + F</t>
   </si>
   <si>
     <t>间隔线</t>
@@ -132,10 +131,19 @@
     <t>压缩单文件代码</t>
   </si>
   <si>
-    <t>选，Ctrl + Shift + P，输入join lines,确认</t>
+    <t xml:space="preserve">选，Ctrl + Shift + P，输入join lines,确认</t>
   </si>
   <si>
-    <t>文件夹里,shirft+右击就看到了
+    <t>选变量</t>
+  </si>
+  <si>
+    <t>双击变量</t>
+  </si>
+  <si>
+    <t>终端</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文件夹里,shirft+右击就看到了
 或文件夹路径框输入cmd,回车
 或电脑屏幕底部搜索框输入cmd,选管理员身份打开
 或vscode终端</t>
@@ -162,19 +170,19 @@
     <t>偷懒补全命令</t>
   </si>
   <si>
-    <t>tab键。如javac 然后tab</t>
+    <t xml:space="preserve">tab键。如javac 然后tab</t>
   </si>
   <si>
     <t>切换文件目录</t>
   </si>
   <si>
-    <t>cd 文件名或路径</t>
+    <t xml:space="preserve">cd 文件名或路径</t>
   </si>
   <si>
     <t>任务管理器</t>
   </si>
   <si>
-    <t>ctrl + alt + del</t>
+    <t xml:space="preserve">ctrl + alt + del</t>
   </si>
   <si>
     <t>底部导航条---右击---</t>
@@ -183,19 +191,19 @@
     <t>切换窗口</t>
   </si>
   <si>
-    <t>ctrl + alt + tab</t>
+    <t xml:space="preserve">ctrl + alt + tab</t>
   </si>
   <si>
     <t>全部最小化</t>
   </si>
   <si>
-    <t>window + d</t>
+    <t xml:space="preserve">window + d</t>
   </si>
   <si>
     <t>管理员运行</t>
   </si>
   <si>
-    <t>window + x</t>
+    <t xml:space="preserve">window + x</t>
   </si>
   <si>
     <t>退出全屏</t>
@@ -207,7 +215,7 @@
     <t>剪切</t>
   </si>
   <si>
-    <t>选,ctr + x</t>
+    <t xml:space="preserve">选,ctr + x</t>
   </si>
   <si>
     <t>选字段复制</t>
@@ -219,27 +227,39 @@
     <t>打开终端</t>
   </si>
   <si>
-    <t>win + r
+    <t xml:space="preserve">win + r
 输入cmd</t>
   </si>
   <si>
     <t>Windows自带的截图</t>
   </si>
   <si>
-    <t>Win+Shift+S
+    <t xml:space="preserve">Win+Shift+S
 能解决点截图导致下拉框消失</t>
   </si>
   <si>
     <t>字母大写</t>
   </si>
   <si>
-    <t>Shift + 字母</t>
+    <t xml:space="preserve">Shift + 字母</t>
+  </si>
+  <si>
+    <t>切换窗口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctr + ～</t>
+  </si>
+  <si>
+    <t>适应电脑窗口大小</t>
+  </si>
+  <si>
+    <t>双击头部</t>
   </si>
   <si>
     <t>换行</t>
   </si>
   <si>
-    <t>alt + enter</t>
+    <t xml:space="preserve">alt + enter</t>
   </si>
   <si>
     <t>删除内容</t>
@@ -270,91 +290,69 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <sz val="12.0"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <strike val="false"/>
+      <name val="SimSun"/>
+      <color rgb="000000"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="SimSun"/>
+      <color rgb="ff0000"/>
+      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
-      <sz val="11.0"/>
-      <strike val="false"/>
-      <color rgb="FF0000"/>
+      <color rgb="000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border/>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
+    <xf fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="1" applyFont="true">
+      <alignment vertical="center" textRotation="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
+    <xf fontId="2" applyFont="true">
+      <alignment vertical="center" textRotation="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf fontId="1" applyFont="true">
+      <alignment vertical="center" textRotation="0" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
+    <xf fontId="3" applyFont="true">
+      <alignment vertical="center" textRotation="0"/>
     </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="false" zeroHeight="false" thickTop="false" thickBottom="false"/>
   <cols>
-    <col min="1" max="1" width="43.333333333333336" customWidth="true"/>
-    <col min="2" max="2" width="86.66666666666667" customWidth="true"/>
-    <col min="3" max="3" width="10.833333333333334" customWidth="true"/>
-    <col min="4" max="4" width="10.833333333333334" customWidth="true"/>
-    <col min="5" max="5" width="10.833333333333334" customWidth="true"/>
-    <col min="6" max="6" width="10.833333333333334" customWidth="true"/>
-    <col min="7" max="7" width="10.833333333333334" customWidth="true"/>
-    <col min="8" max="8" width="10.833333333333334" customWidth="true"/>
-    <col min="9" max="9" width="10.833333333333334" customWidth="true"/>
-    <col min="10" max="10" width="10.833333333333334" customWidth="true"/>
-    <col min="11" max="11" width="10.833333333333334" customWidth="true"/>
-    <col min="12" max="12" width="10.833333333333334" customWidth="true"/>
-    <col min="13" max="13" width="10.833333333333334" customWidth="true"/>
-    <col min="14" max="14" width="10.833333333333334" customWidth="true"/>
-    <col min="15" max="15" width="10.833333333333334" customWidth="true"/>
-    <col min="16" max="16" width="10.833333333333334" customWidth="true"/>
-    <col min="17" max="17" width="10.833333333333334" customWidth="true"/>
-    <col min="18" max="18" width="10.833333333333334" customWidth="true"/>
+    <col min="1" max="1" width="42.5" customWidth="true"/>
+    <col min="2" max="2" width="85.833336" customWidth="true"/>
+    <col min="3" max="18" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -834,8 +832,12 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4393,78 +4395,21 @@
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
     </row>
-    <row r="199">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <extLst/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="false" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="false" zeroHeight="false" thickTop="false" thickBottom="false"/>
   <cols>
-    <col min="1" max="1" width="43.333333333333336" customWidth="true"/>
-    <col min="2" max="2" width="86.66666666666667" customWidth="true"/>
-    <col min="3" max="3" width="10.833333333333334" customWidth="true"/>
-    <col min="4" max="4" width="10.833333333333334" customWidth="true"/>
-    <col min="5" max="5" width="10.833333333333334" customWidth="true"/>
-    <col min="6" max="6" width="10.833333333333334" customWidth="true"/>
-    <col min="7" max="7" width="10.833333333333334" customWidth="true"/>
-    <col min="8" max="8" width="10.833333333333334" customWidth="true"/>
-    <col min="9" max="9" width="10.833333333333334" customWidth="true"/>
-    <col min="10" max="10" width="10.833333333333334" customWidth="true"/>
-    <col min="11" max="11" width="10.833333333333334" customWidth="true"/>
-    <col min="12" max="12" width="10.833333333333334" customWidth="true"/>
-    <col min="13" max="13" width="10.833333333333334" customWidth="true"/>
-    <col min="14" max="14" width="10.833333333333334" customWidth="true"/>
-    <col min="15" max="15" width="10.833333333333334" customWidth="true"/>
-    <col min="16" max="16" width="10.833333333333334" customWidth="true"/>
-    <col min="17" max="17" width="10.833333333333334" customWidth="true"/>
-    <col min="18" max="18" width="10.833333333333334" customWidth="true"/>
+    <col min="1" max="1" width="42.5" customWidth="true"/>
+    <col min="2" max="2" width="85.833336" customWidth="true"/>
+    <col min="3" max="18" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4489,10 +4434,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4513,10 +4458,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4537,10 +4482,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4561,10 +4506,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4585,10 +4530,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4609,10 +4554,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -8492,37 +8437,20 @@
       <c r="R200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <extLst/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="false" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="false" zeroHeight="false" thickTop="false" thickBottom="false"/>
   <cols>
-    <col min="1" max="1" width="43.333333333333336" customWidth="true"/>
-    <col min="2" max="2" width="86.66666666666667" customWidth="true"/>
-    <col min="3" max="3" width="10.833333333333334" customWidth="true"/>
-    <col min="4" max="4" width="10.833333333333334" customWidth="true"/>
-    <col min="5" max="5" width="10.833333333333334" customWidth="true"/>
-    <col min="6" max="6" width="10.833333333333334" customWidth="true"/>
-    <col min="7" max="7" width="10.833333333333334" customWidth="true"/>
-    <col min="8" max="8" width="10.833333333333334" customWidth="true"/>
-    <col min="9" max="9" width="10.833333333333334" customWidth="true"/>
-    <col min="10" max="10" width="10.833333333333334" customWidth="true"/>
-    <col min="11" max="11" width="10.833333333333334" customWidth="true"/>
-    <col min="12" max="12" width="10.833333333333334" customWidth="true"/>
-    <col min="13" max="13" width="10.833333333333334" customWidth="true"/>
-    <col min="14" max="14" width="10.833333333333334" customWidth="true"/>
-    <col min="15" max="15" width="10.833333333333334" customWidth="true"/>
-    <col min="16" max="16" width="10.833333333333334" customWidth="true"/>
-    <col min="17" max="17" width="10.833333333333334" customWidth="true"/>
-    <col min="18" max="18" width="10.833333333333334" customWidth="true"/>
+    <col min="1" max="1" width="42.5" customWidth="true"/>
+    <col min="2" max="2" width="85.833336" customWidth="true"/>
+    <col min="3" max="18" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8546,11 +8474,11 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>49</v>
+      <c r="A2" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8570,9 +8498,9 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -8593,10 +8521,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -8617,10 +8545,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -8641,10 +8569,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8665,10 +8593,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -8689,10 +8617,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -8713,10 +8641,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -8737,10 +8665,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8761,10 +8689,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -8785,10 +8713,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -8808,8 +8736,12 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -8828,8 +8760,12 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -12568,40 +12504,23 @@
       <c r="R200" s="1"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <extLst/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="false" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="false" zeroHeight="false" thickTop="false" thickBottom="false"/>
   <cols>
-    <col min="1" max="1" width="43.333333333333336" customWidth="true"/>
-    <col min="2" max="2" width="86.66666666666667" customWidth="true"/>
-    <col min="3" max="3" width="10.833333333333334" customWidth="true"/>
-    <col min="4" max="4" width="10.833333333333334" customWidth="true"/>
-    <col min="5" max="5" width="10.833333333333334" customWidth="true"/>
-    <col min="6" max="6" width="10.833333333333334" customWidth="true"/>
-    <col min="7" max="7" width="10.833333333333334" customWidth="true"/>
-    <col min="8" max="8" width="10.833333333333334" customWidth="true"/>
-    <col min="9" max="9" width="10.833333333333334" customWidth="true"/>
-    <col min="10" max="10" width="10.833333333333334" customWidth="true"/>
-    <col min="11" max="11" width="10.833333333333334" customWidth="true"/>
-    <col min="12" max="12" width="10.833333333333334" customWidth="true"/>
-    <col min="13" max="13" width="10.833333333333334" customWidth="true"/>
-    <col min="14" max="14" width="10.833333333333334" customWidth="true"/>
-    <col min="15" max="15" width="10.833333333333334" customWidth="true"/>
-    <col min="16" max="16" width="10.833333333333334" customWidth="true"/>
-    <col min="17" max="17" width="10.833333333333334" customWidth="true"/>
-    <col min="18" max="18" width="10.833333333333334" customWidth="true"/>
+    <col min="1" max="1" width="42.5" customWidth="true"/>
+    <col min="2" max="2" width="85.833336" customWidth="true"/>
+    <col min="3" max="18" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12626,10 +12545,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -12650,10 +12569,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -16613,37 +16532,20 @@
       <c r="R200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <extLst/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="false" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="false" zeroHeight="false" thickTop="false" thickBottom="false"/>
   <cols>
-    <col min="1" max="1" width="43.333333333333336" customWidth="true"/>
-    <col min="2" max="2" width="86.66666666666667" customWidth="true"/>
-    <col min="3" max="3" width="10.833333333333334" customWidth="true"/>
-    <col min="4" max="4" width="10.833333333333334" customWidth="true"/>
-    <col min="5" max="5" width="10.833333333333334" customWidth="true"/>
-    <col min="6" max="6" width="10.833333333333334" customWidth="true"/>
-    <col min="7" max="7" width="10.833333333333334" customWidth="true"/>
-    <col min="8" max="8" width="10.833333333333334" customWidth="true"/>
-    <col min="9" max="9" width="10.833333333333334" customWidth="true"/>
-    <col min="10" max="10" width="10.833333333333334" customWidth="true"/>
-    <col min="11" max="11" width="10.833333333333334" customWidth="true"/>
-    <col min="12" max="12" width="10.833333333333334" customWidth="true"/>
-    <col min="13" max="13" width="10.833333333333334" customWidth="true"/>
-    <col min="14" max="14" width="10.833333333333334" customWidth="true"/>
-    <col min="15" max="15" width="10.833333333333334" customWidth="true"/>
-    <col min="16" max="16" width="10.833333333333334" customWidth="true"/>
-    <col min="17" max="17" width="10.833333333333334" customWidth="true"/>
-    <col min="18" max="18" width="10.833333333333334" customWidth="true"/>
+    <col min="1" max="1" width="42.5" customWidth="true"/>
+    <col min="2" max="2" width="85.833336" customWidth="true"/>
+    <col min="3" max="18" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16668,10 +16570,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -16692,10 +16594,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -20655,37 +20557,20 @@
       <c r="R200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <extLst/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="false" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="false" zeroHeight="false" thickTop="false" thickBottom="false"/>
   <cols>
-    <col min="1" max="1" width="43.333333333333336" customWidth="true"/>
-    <col min="2" max="2" width="86.66666666666667" customWidth="true"/>
-    <col min="3" max="3" width="10.833333333333334" customWidth="true"/>
-    <col min="4" max="4" width="10.833333333333334" customWidth="true"/>
-    <col min="5" max="5" width="10.833333333333334" customWidth="true"/>
-    <col min="6" max="6" width="10.833333333333334" customWidth="true"/>
-    <col min="7" max="7" width="10.833333333333334" customWidth="true"/>
-    <col min="8" max="8" width="10.833333333333334" customWidth="true"/>
-    <col min="9" max="9" width="10.833333333333334" customWidth="true"/>
-    <col min="10" max="10" width="10.833333333333334" customWidth="true"/>
-    <col min="11" max="11" width="10.833333333333334" customWidth="true"/>
-    <col min="12" max="12" width="10.833333333333334" customWidth="true"/>
-    <col min="13" max="13" width="10.833333333333334" customWidth="true"/>
-    <col min="14" max="14" width="10.833333333333334" customWidth="true"/>
-    <col min="15" max="15" width="10.833333333333334" customWidth="true"/>
-    <col min="16" max="16" width="10.833333333333334" customWidth="true"/>
-    <col min="17" max="17" width="10.833333333333334" customWidth="true"/>
-    <col min="18" max="18" width="10.833333333333334" customWidth="true"/>
+    <col min="1" max="1" width="42.5" customWidth="true"/>
+    <col min="2" max="2" width="85.833336" customWidth="true"/>
+    <col min="3" max="18" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20710,10 +20595,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -24693,7 +24578,6 @@
       <c r="R200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <extLst/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>